--- a/FlipkartWebAutomation/src/main/java/com/divezy/testdata/TestingData.xlsx
+++ b/FlipkartWebAutomation/src/main/java/com/divezy/testdata/TestingData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>testData</t>
   </si>
@@ -54,6 +54,44 @@
   </si>
   <si>
     <t>Please enter valid Email ID/Mobile number</t>
+  </si>
+  <si>
+    <t>ItemType</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TVs &amp; Appliances
+</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby &amp; Kids
+</t>
+  </si>
+  <si>
+    <t>Sports, Books &amp; More</t>
+  </si>
+  <si>
+    <t>Data4</t>
+  </si>
+  <si>
+    <t>Data5</t>
+  </si>
+  <si>
+    <t>itemTypeName</t>
+  </si>
+  <si>
+    <t>itemsTypeVerification</t>
+  </si>
+  <si>
+    <t>Mobiles</t>
   </si>
 </sst>
 </file>
@@ -98,9 +136,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -379,21 +420,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="41.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,8 +449,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -415,7 +467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -423,12 +475,51 @@
         <v>36464</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
